--- a/학습자료/단답형/객관식_한국사_대조_통일 신라 중앙 관제 왕.xlsx
+++ b/학습자료/단답형/객관식_한국사_대조_통일 신라 중앙 관제 왕.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>병부
-1. 법흥왕
-2. 진덕 여왕
-3. 무열왕</t>
+1. 문무왕
+2. 신문왕
+3. 법흥왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 법흥왕</t>
+          <t>3, 법흥왕</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>위화부
-1. 진평왕
+1. 신문왕
 2. 법흥왕
-3. 무열왕</t>
+3. 진평왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 진평왕</t>
+          <t>3, 진평왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>조부
-1. 진평왕
-2. 문무왕
-3. 진덕 여왕</t>
+1. 신문왕
+2. 무열왕
+3. 진평왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 진평왕</t>
+          <t>3, 진평왕</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>승부
-1. 진평왕
-2. 진덕 여왕
+1. 법흥왕
+2. 진평왕
 3. 신문왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 진평왕</t>
+          <t>2, 진평왕</t>
         </is>
       </c>
     </row>
@@ -510,8 +510,8 @@
         <is>
           <t>예부
 1. 진평왕
-2. 진덕 여왕
-3. 신문왕</t>
+2. 무열왕
+3. 진덕 여왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,9 +524,9 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>영객부
-1. 진덕 여왕
+1. 신문왕
 2. 진평왕
-3. 무열왕</t>
+3. 진덕 여왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>집사부
-1. 진덕 여왕
+1. 무열왕
 2. 진평왕
-3. 신문왕</t>
+3. 진덕 여왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 진덕 여왕</t>
+          <t>3, 진덕 여왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>창부
-1. 진덕 여왕
-2. 신문왕
-3. 무열왕</t>
+1. 신문왕
+2. 진덕 여왕
+3. 법흥왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 진덕 여왕</t>
+          <t>2, 진덕 여왕</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>품주
-1. 진덕 여왕
-2. 법흥왕
+1. 무열왕
+2. 진덕 여왕
 3. 문무왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 진덕 여왕</t>
+          <t>2, 진덕 여왕</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>좌이방부
-1. 무열왕
-2. 진덕 여왕
-3. 법흥왕</t>
+1. 진덕 여왕
+2. 문무왕
+3. 신문왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2, 진덕 여왕</t>
+          <t>1, 진덕 여왕</t>
         </is>
       </c>
     </row>
@@ -599,8 +599,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>사정부
-1. 진평왕
-2. 진덕 여왕
+1. 신문왕
+2. 문무왕
 3. 무열왕</t>
         </is>
       </c>
@@ -614,44 +614,44 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>우이방부
+1. 문무왕
+2. 무열왕
+3. 법흥왕</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 문무왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>선부
+1. 문무왕
+2. 진평왕
+3. 법흥왕</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 문무왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>공장부
 1. 신문왕
 2. 문무왕
 3. 진덕 여왕</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 문무왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>선부
-1. 문무왕
-2. 진덕 여왕
-3. 진평왕</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1, 문무왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>공장부
-1. 법흥왕
-2. 진덕 여왕
-3. 신문왕</t>
-        </is>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, 신문왕</t>
+          <t>1, 신문왕</t>
         </is>
       </c>
     </row>
@@ -659,9 +659,9 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>예작부
-1. 무열왕
+1. 진평왕
 2. 신문왕
-3. 진평왕</t>
+3. 진덕 여왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
